--- a/Tableau de bord Kevin Maxence Edoaurd.xlsx
+++ b/Tableau de bord Kevin Maxence Edoaurd.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stagiaire\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SeriesCommonTheme---KME\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Diagramme de classe /maquettage illustrator</t>
   </si>
 </sst>
 </file>
@@ -463,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,6 +503,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42608</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tableau de bord Kevin Maxence Edoaurd.xlsx
+++ b/Tableau de bord Kevin Maxence Edoaurd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Taches</t>
-  </si>
-  <si>
     <t>Génération des entités sur Symfony et mapping</t>
   </si>
   <si>
@@ -45,12 +42,15 @@
   </si>
   <si>
     <t>Diagramme de classe /maquettage illustrator</t>
+  </si>
+  <si>
+    <t>Tâches</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -279,6 +279,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -314,6 +331,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -469,7 +503,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,13 +516,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="E1" s="3"/>
     </row>
@@ -497,10 +531,13 @@
         <v>42601</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -508,10 +545,13 @@
         <v>42608</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Tableau de bord Kevin Maxence Edoaurd.xlsx
+++ b/Tableau de bord Kevin Maxence Edoaurd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -45,12 +45,18 @@
   </si>
   <si>
     <t>Tâches</t>
+  </si>
+  <si>
+    <t>Tests des vues/ergonomie/révision mapping/tests formulaires</t>
+  </si>
+  <si>
+    <t>Révision du CRUD/Données/Templates/Sécurité</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -279,23 +285,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -331,23 +320,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -500,15 +472,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="2" max="2" width="57.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -551,6 +523,28 @@
         <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42621</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42622</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
